--- a/biology/Médecine/Ishaq_ibn_'Ali_al-Ruhawi/Ishaq_ibn_'Ali_al-Ruhawi.xlsx
+++ b/biology/Médecine/Ishaq_ibn_'Ali_al-Ruhawi/Ishaq_ibn_'Ali_al-Ruhawi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ishaq_ibn_%27Ali_al-Ruhawi</t>
+          <t>Ishaq_ibn_'Ali_al-Ruhawi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ishāq ibn 'Alī al-Ruhāwī est un médecin arabe qui a vécu au IXe  ou au  Xe siècle, connu par un seul ouvrage en vingt chapitres intitulé Adab al-tabib (Éthique du médecin).
-On en est pratiquement réduit aux conjectures à son sujet (Ibn Abi Usaybi'a ne lui consacre pas de notice dans son dictionnaire biographique des médecins). Son surnom « al-Ruhawi » indique apparemment qu'il était originaire de la ville appelée en arabe « al-Ruha », c'est-à-dire l'antique Édesse, actuellement Şanlıurfa. Cette origine, et sa profession de médecin, ont fait supposer qu'il a dû être d'abord chrétien, mais son texte fait plutôt penser qu'au moment de sa rédaction il était musulman[1].
-Son traité de déontologie médicale est conservé dans un manuscrit unique de la Süleymanie Kitabhane d'Istanbul (n° 1658), de 112 folios, avec 17 lignes par page, dédié au sultan Bayezid II[2]. Les vingt chapitres sont consacrés aux aspects moraux et pratiques de la profession médicale, notamment : la loyauté et la bonne foi du médecin, la condamnation de la corruption et du charlatanisme, la dignité qui s'attache à cette profession et le respect qu'elle mérite, les critères de sélection des bons médecins, le soin que le médecin doit avoir de lui-même, les bons comportements pendant les visites, la manière d'interroger le patient et ses proches, ce que le patient lui-même doit dire ou taire devant le médecin et la manière de recevoir ses directives selon qu'on est malade ou en bonne santé, etc. Le médecin est appelé « gardien des âmes et des corps ».   
+On en est pratiquement réduit aux conjectures à son sujet (Ibn Abi Usaybi'a ne lui consacre pas de notice dans son dictionnaire biographique des médecins). Son surnom « al-Ruhawi » indique apparemment qu'il était originaire de la ville appelée en arabe « al-Ruha », c'est-à-dire l'antique Édesse, actuellement Şanlıurfa. Cette origine, et sa profession de médecin, ont fait supposer qu'il a dû être d'abord chrétien, mais son texte fait plutôt penser qu'au moment de sa rédaction il était musulman.
+Son traité de déontologie médicale est conservé dans un manuscrit unique de la Süleymanie Kitabhane d'Istanbul (n° 1658), de 112 folios, avec 17 lignes par page, dédié au sultan Bayezid II. Les vingt chapitres sont consacrés aux aspects moraux et pratiques de la profession médicale, notamment : la loyauté et la bonne foi du médecin, la condamnation de la corruption et du charlatanisme, la dignité qui s'attache à cette profession et le respect qu'elle mérite, les critères de sélection des bons médecins, le soin que le médecin doit avoir de lui-même, les bons comportements pendant les visites, la manière d'interroger le patient et ses proches, ce que le patient lui-même doit dire ou taire devant le médecin et la manière de recevoir ses directives selon qu'on est malade ou en bonne santé, etc. Le médecin est appelé « gardien des âmes et des corps ».   
 Al-Ruhawi avait écrit trois autres ouvrages, a priori perdus : une compilation des quatre traités de Galien qui forment la première partie des Summaria Alexandrinorum ; une Introduction à la dialectique ; un texte consacré aux examens des médecins.
 </t>
         </is>
